--- a/Table 2.xlsx
+++ b/Table 2.xlsx
@@ -42,30 +42,6 @@
     <t>similis</t>
   </si>
   <si>
-    <t>N=2</t>
-  </si>
-  <si>
-    <t>N=3</t>
-  </si>
-  <si>
-    <t>N=112</t>
-  </si>
-  <si>
-    <t>N=122</t>
-  </si>
-  <si>
-    <t>N=62</t>
-  </si>
-  <si>
-    <t>N=102</t>
-  </si>
-  <si>
-    <t>N=148</t>
-  </si>
-  <si>
-    <t>N=125</t>
-  </si>
-  <si>
     <t>SVL</t>
   </si>
   <si>
@@ -571,9 +547,6 @@
     <t>banjarana</t>
   </si>
   <si>
-    <t>N=5</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -611,6 +584,33 @@
   <si>
     <t>21.8 ± 0.8 
 20.9 – 22.9</t>
+  </si>
+  <si>
+    <t>n=2</t>
+  </si>
+  <si>
+    <t>n=5</t>
+  </si>
+  <si>
+    <t>n=148</t>
+  </si>
+  <si>
+    <t>n=62</t>
+  </si>
+  <si>
+    <t>n=102</t>
+  </si>
+  <si>
+    <t>n=122</t>
+  </si>
+  <si>
+    <t>n=3</t>
+  </si>
+  <si>
+    <t>n=112</t>
+  </si>
+  <si>
+    <t>n=125</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -630,31 +630,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -672,6 +653,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,7 +673,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -689,58 +681,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1106,524 +1122,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="35" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="8"/>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
